--- a/v4/example/xlsx/Config.xlsx
+++ b/v4/example/xlsx/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790"/>
+    <workbookView windowWidth="16005" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>战斗服ip</t>
   </si>
   <si>
-    <t>Spliter=|</t>
+    <t>ArraySpliter=|</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/v4/example/xlsx/Config.xlsx
+++ b/v4/example/xlsx/Config.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10275"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="6"/>
